--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2336.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2336.xlsx
@@ -354,7 +354,7 @@
         <v>3.32807856707121</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.8864274817039095</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2336.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2336.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.621291806490946</v>
+        <v>0.928222119808197</v>
       </c>
       <c r="B1">
-        <v>3.32807856707121</v>
+        <v>0.8046717643737793</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.7049208879470825</v>
       </c>
       <c r="D1">
-        <v>0.8864274817039095</v>
+        <v>0.7624741792678833</v>
       </c>
       <c r="E1">
-        <v>0.5112062238570778</v>
+        <v>0.929070770740509</v>
       </c>
     </row>
   </sheetData>
